--- a/Routine R1/EXCEL RESOURCE/TEACHER LIST.xlsx
+++ b/Routine R1/EXCEL RESOURCE/TEACHER LIST.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>TEACHER_CODE</t>
   </si>
@@ -72,15 +72,6 @@
     <t>AFA</t>
   </si>
   <si>
-    <t>Adnan</t>
-  </si>
-  <si>
-    <t>Ferdous</t>
-  </si>
-  <si>
-    <t>Ashrafi</t>
-  </si>
-  <si>
     <t>AS</t>
   </si>
   <si>
@@ -184,14 +175,28 @@
   </si>
   <si>
     <t xml:space="preserve">HA Sir </t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>Tarin Kazi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -227,7 +232,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,23 +548,23 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -575,23 +580,23 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -599,23 +604,23 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +636,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,15 +644,15 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +660,7 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,15 +668,15 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +700,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,31 +708,39 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
